--- a/ConfigFiles/Config_noclustering.xlsx
+++ b/ConfigFiles/Config_noclustering.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-HP\Dispa-SET\ConfigFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012CB03F-C280-444D-AC3A-9F37B72EAB96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -486,7 +492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,7 +673,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -675,12 +681,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -722,7 +731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,9 +764,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -790,6 +816,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -965,15 +1008,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
@@ -1178,7 +1221,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="21">
-        <v>42010</v>
+        <v>42369</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>75</v>
@@ -1192,7 +1235,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>91</v>
@@ -1669,7 +1712,7 @@
         <v>31</v>
       </c>
       <c r="C91" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>19</v>
@@ -2060,76 +2103,76 @@
     <mergeCell ref="B4:H4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C18:D18"/>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C31:D31">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C18:D18" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C31:D31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Stop day of the simulation" prompt="This is the last simulated day. It must be comprised within the range of dates provided within the data files." sqref="C32:D32">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Stop day of the simulation" prompt="This is the last simulated day. It must be comprised within the range of dates provided within the data files." sqref="C32:D32" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C68"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F70:F74 F77:F78"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C112"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C113"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C114"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the storage capacity in all the zones by the provided factor" sqref="C115"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the gams folder" prompt="Example:_x000a_C:\GAMS\win64\24.3_x000a__x000a_If unspecified or non-existing, Dispa-SET will try to determine the path automatically. " sqref="C22"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max load)" prompt="In case no data file is provided. This single value is used for all the sets._x000a_It is defined in % of the maximum load throughout the simulation period." sqref="F66"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (in EUR/t_co2)" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F75"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the cplex executable" prompt="This is only useful if the Pyomo engine is selected and if cplex is not in the PATH (i.e. accessible from the prompt). This parameters can be left unspecified in most cases._x000a__x000a_Example:_x000a_C:\\Users\\ese-veda06\\Downloads\\solvers\\cplex.exe" sqref="C23"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reservoir inflows in MWh" sqref="C69"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C63"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C68" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F70:F74 F77:F78" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C112" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C113" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C114" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the storage capacity in all the zones by the provided factor" sqref="C115" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the gams folder" prompt="Example:_x000a_C:\GAMS\win64\24.3_x000a__x000a_If unspecified or non-existing, Dispa-SET will try to determine the path automatically. " sqref="C22" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max load)" prompt="In case no data file is provided. This single value is used for all the sets._x000a_It is defined in % of the maximum load throughout the simulation period." sqref="F66" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (in EUR/t_co2)" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F75" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the cplex executable" prompt="This is only useful if the Pyomo engine is selected and if cplex is not in the PATH (i.e. accessible from the prompt). This parameters can be left unspecified in most cases._x000a__x000a_Example:_x000a_C:\\Users\\ese-veda06\\Downloads\\solvers\\cplex.exe" sqref="C23" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reservoir inflows in MWh" sqref="C69" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C63" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>F88:G102 C88:C102 C132:C146</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write excel files" prompt="If set to true, one excel file per parameter will be written in the simulation environment directory.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write excel files" prompt="If set to true, one excel file per parameter will be written in the simulation environment directory." xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C19:D19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write GDX file" prompt="If set to true, the gdx file is written in the simulation environment directory. Note that the gdx file is required to run the GAMS optimization.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write GDX file" prompt="If set to true, the gdx file is written in the simulation environment directory. Note that the gdx file is required to run the GAMS optimization." xr:uid="{00000000-0002-0000-0000-000011000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C20:D20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write Pickles file" prompt="If set to true, one pickle file (python data format) is written in the simulation environment directory to allow quickly retrieving the simulation inputs">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write Pickles file" prompt="If set to true, one pickle file (python data format) is written in the simulation environment directory to allow quickly retrieving the simulation inputs" xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C21:D21 D46</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform." xr:uid="{00000000-0002-0000-0000-000013000000}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>D47:D49</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve Calculation" prompt="This inputs allows selecting the metodology for reserve sizing_x000a_">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve Calculation" prompt="This inputs allows selecting the metodology for reserve sizing_x000a_" xr:uid="{00000000-0002-0000-0000-000014000000}">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>C48</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Allow Curtailment of Renewables" prompt="Set to true to allow curtailment">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Allow Curtailment of Renewables" prompt="Set to true to allow curtailment" xr:uid="{00000000-0002-0000-0000-000015000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C49</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform." xr:uid="{00000000-0002-0000-0000-000016000000}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$6</xm:f>
           </x14:formula1>
@@ -2142,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2150,7 +2193,7 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
@@ -2225,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -2233,7 +2276,7 @@
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="20"/>
   </cols>
@@ -2995,7 +3038,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
